--- a/BuckBoost.xlsx
+++ b/BuckBoost.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Furkan\Desktop\GAZİ YL\APE\HW3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Furkan\Desktop\GAZİ YL\APE\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E638C3-3074-4BD7-80FF-A2502249180B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C9E198-31D5-4788-9F77-A1ACD24C0577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11256" yWindow="3492" windowWidth="17280" windowHeight="9420" xr2:uid="{4ED3A0B5-DA3E-4505-8F9A-14C9D7ED61A1}"/>
   </bookViews>
@@ -3335,8 +3335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABF3729-7739-45F8-9A9B-5714E893279C}">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/BuckBoost.xlsx
+++ b/BuckBoost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Furkan\Desktop\GAZİ YL\APE\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C9E198-31D5-4788-9F77-A1ACD24C0577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A9BEA0-F803-42D8-B7FA-16CAA8CC8DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11256" yWindow="3492" windowWidth="17280" windowHeight="9420" xr2:uid="{4ED3A0B5-DA3E-4505-8F9A-14C9D7ED61A1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="38">
   <si>
     <t>Vin</t>
   </si>
@@ -107,19 +107,10 @@
     <t>MOSFET</t>
   </si>
   <si>
-    <t>DIODE</t>
-  </si>
-  <si>
-    <t>Vmax_diode</t>
-  </si>
-  <si>
     <t>Vmax_mosfet</t>
   </si>
   <si>
     <t>Imax_mosfet</t>
-  </si>
-  <si>
-    <t>Irms_diode</t>
   </si>
   <si>
     <t>Irms_mosfet</t>
@@ -131,9 +122,6 @@
     <t>Iin</t>
   </si>
   <si>
-    <t>Iavg_diode</t>
-  </si>
-  <si>
     <t>SCT025W120G3-4</t>
   </si>
   <si>
@@ -143,16 +131,7 @@
     <t>Pcond</t>
   </si>
   <si>
-    <t>Vf0</t>
-  </si>
-  <si>
-    <t>Rd</t>
-  </si>
-  <si>
     <t>Tj=125</t>
-  </si>
-  <si>
-    <t>Pd</t>
   </si>
   <si>
     <t>Ptotal</t>
@@ -168,6 +147,9 @@
   </si>
   <si>
     <t>MOSFET 4</t>
+  </si>
+  <si>
+    <t>Eff</t>
   </si>
 </sst>
 </file>
@@ -302,7 +284,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>MOSFET</c:v>
+            <c:v>MOSFET 1,3</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -469,42 +451,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$34:$L$34</c:f>
+              <c:f>Sheet1!$B$48:$L$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>183.0390625</c:v>
+                  <c:v>334.88437499999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>147.7361288265306</c:v>
+                  <c:v>185.82618846463095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125.67680354683196</c:v>
+                  <c:v>158.57836814775931</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110.76066914819944</c:v>
+                  <c:v>139.83913305750301</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100.08341079637643</c:v>
+                  <c:v>126.22786786041917</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92.104817708333314</c:v>
+                  <c:v>115.92651984536275</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>85.939560898006391</c:v>
+                  <c:v>107.8767641284602</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81.045899598692046</c:v>
+                  <c:v>101.42351781647049</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>77.075343679138314</c:v>
+                  <c:v>96.140930288423164</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>73.794360942906565</c:v>
+                  <c:v>91.740861950027607</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71.041032850910113</c:v>
+                  <c:v>88.021747800091262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,7 +502,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Diode</c:v>
+            <c:v>MOSFET 2, 4</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -578,42 +560,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$32:$L$32</c:f>
+              <c:f>Sheet1!$B$31:$L$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>76.726562500000014</c:v>
+                  <c:v>61.12968750000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70.309151785714278</c:v>
+                  <c:v>54.198883928571412</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.836410984848484</c:v>
+                  <c:v>49.368323863636363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.540707236842103</c:v>
+                  <c:v>45.808963815789468</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.011446220930239</c:v>
+                  <c:v>43.077361918604652</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.009114583333329</c:v>
+                  <c:v>40.914843749999989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56.384581367924511</c:v>
+                  <c:v>39.160347877358468</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55.040140086206904</c:v>
+                  <c:v>37.708351293103455</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53.909102182539684</c:v>
+                  <c:v>36.486830357142857</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.944393382352942</c:v>
+                  <c:v>35.444944852941177</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>52.111836472602739</c:v>
+                  <c:v>34.545783390410953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -997,7 +979,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>MOSFET</c:v>
+            <c:v>MOSFET 1,3</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -1013,7 +995,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Transition!$B$1:$L$1</c:f>
+              <c:f>Sheet1!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1060,13 +1042,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>28.687499999999993</c:v>
+                  <c:v>134.23630477483749</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.663584183673473</c:v>
+                  <c:v>87.288219802968271</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7381198347107469</c:v>
+                  <c:v>57.706933627806464</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>48.219961911357338</c:v>
@@ -1098,7 +1080,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-199A-43BC-9F62-434C088AD26C}"/>
+              <c16:uniqueId val="{00000000-74CB-4995-9ECF-D8812F82A2C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1122,7 +1104,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Transition!$B$1:$L$1</c:f>
+              <c:f>Sheet1!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1169,37 +1151,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>134.99999999999994</c:v>
+                  <c:v>240.54880477483749</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.427799581129506</c:v>
+                  <c:v>164.71519684378458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.841088200037674</c:v>
+                  <c:v>117.54732618978994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>139.83908388235506</c:v>
+                  <c:v>188.0578514542936</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.874833759953042</c:v>
+                  <c:v>44.634374999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.037351928557694</c:v>
+                  <c:v>44.634374999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.791847801199207</c:v>
+                  <c:v>44.634375000000013</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.243844385454242</c:v>
+                  <c:v>44.634374999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.465365321414836</c:v>
+                  <c:v>44.634374999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.507250825616509</c:v>
+                  <c:v>44.634374999999991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32.406412288146733</c:v>
+                  <c:v>44.634374999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1207,7 +1189,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-199A-43BC-9F62-434C088AD26C}"/>
+              <c16:uniqueId val="{00000001-74CB-4995-9ECF-D8812F82A2C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1215,7 +1197,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Diode</c:v>
+            <c:v>MOSFET 2, 4</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -1231,7 +1213,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Transition!$B$1:$L$1</c:f>
+              <c:f>Sheet1!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1273,12 +1255,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Transition!#REF!</c:f>
+              <c:f>Transition!$B$31:$L$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>38.812499999999986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.88169642857142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.051136363636367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.808963815789468</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5570130813953487</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7195312499999988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4740271226415089</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9260237068965518</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1475446428571434</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1894301470588218</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.08859160958904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1286,7 +1298,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-199A-43BC-9F62-434C088AD26C}"/>
+              <c16:uniqueId val="{00000002-74CB-4995-9ECF-D8812F82A2C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2863,44 +2875,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>103414</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>406037</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>69668</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1062E420-7632-4622-B219-47A1A20B04A8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -2928,7 +2902,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2972,7 +2946,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3016,7 +2990,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3031,6 +3005,44 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>242047</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>544670</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104439</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1DF7067-0EA7-4E61-AF28-0802CABABC5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3333,10 +3345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABF3729-7739-45F8-9A9B-5714E893279C}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3562,14 +3574,14 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6">
-        <f>B3*B5/B1</f>
+        <f>B2/B1</f>
         <v>50</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:F6" si="3">C3*C5/C1</f>
+        <f t="shared" ref="C6:L6" si="3">C2/C1</f>
         <v>41.071428571428569</v>
       </c>
       <c r="D6">
@@ -3585,27 +3597,27 @@
         <v>26.744186046511629</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:L6" si="4">G3*G5/G1</f>
+        <f t="shared" si="3"/>
         <v>23.958333333333332</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6" si="5">H3*H5/H1</f>
+        <f t="shared" si="3"/>
         <v>21.69811320754717</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6" si="6">I3*I5/I1</f>
+        <f t="shared" si="3"/>
         <v>19.827586206896552</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6" si="7">J3*J5/J1</f>
+        <f t="shared" si="3"/>
         <v>18.253968253968253</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6" si="8">K3*K5/K1</f>
+        <f t="shared" si="3"/>
         <v>16.911764705882351</v>
       </c>
       <c r="L6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15.753424657534246</v>
       </c>
       <c r="O6" s="1"/>
@@ -3619,19 +3631,19 @@
         <v>0.63492063492063489</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:F7" si="9">C3/(C3+C1)</f>
+        <f t="shared" ref="C7:F7" si="4">C3/(C3+C1)</f>
         <v>0.58823529411764708</v>
       </c>
       <c r="D7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.54794520547945202</v>
       </c>
       <c r="E7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.51282051282051277</v>
       </c>
       <c r="F7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.48192771084337349</v>
       </c>
       <c r="G7">
@@ -3639,19 +3651,19 @@
         <v>0.45454545454545453</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:K7" si="10">H3/(H3+H1)</f>
+        <f t="shared" ref="H7:K7" si="5">H3/(H3+H1)</f>
         <v>0.43010752688172044</v>
       </c>
       <c r="I7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.40816326530612246</v>
       </c>
       <c r="J7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.38834951456310679</v>
       </c>
       <c r="K7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.37037037037037035</v>
       </c>
       <c r="L7">
@@ -3705,50 +3717,50 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <f>B6+B5</f>
         <v>78.75</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:F9" si="11">C6+C5</f>
+        <f t="shared" ref="C9:F9" si="6">C6+C5</f>
         <v>69.821428571428569</v>
       </c>
       <c r="D9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>63.598484848484851</v>
       </c>
       <c r="E9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>59.013157894736842</v>
       </c>
       <c r="F9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>55.494186046511629</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:L9" si="12">G6+G5</f>
+        <f t="shared" ref="G9:L9" si="7">G6+G5</f>
         <v>52.708333333333329</v>
       </c>
       <c r="H9">
-        <f t="shared" ref="H9:L9" si="13">H6+H5</f>
+        <f t="shared" ref="H9:L9" si="8">H6+H5</f>
         <v>50.448113207547166</v>
       </c>
       <c r="I9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>48.577586206896555</v>
       </c>
       <c r="J9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>47.003968253968253</v>
       </c>
       <c r="K9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>45.661764705882348</v>
       </c>
       <c r="L9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>44.503424657534246</v>
       </c>
       <c r="O9" s="1"/>
@@ -3762,43 +3774,43 @@
         <v>19.6875</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:F10" si="14">C8*C9</f>
+        <f t="shared" ref="C10:F10" si="9">C8*C9</f>
         <v>17.455357142857142</v>
       </c>
       <c r="D10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>15.899621212121213</v>
       </c>
       <c r="E10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>14.753289473684211</v>
       </c>
       <c r="F10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>13.873546511627907</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G10:L10" si="15">G8*G9</f>
+        <f t="shared" ref="G10:L10" si="10">G8*G9</f>
         <v>13.177083333333332</v>
       </c>
       <c r="H10">
-        <f t="shared" ref="H10" si="16">H8*H9</f>
+        <f t="shared" ref="H10" si="11">H8*H9</f>
         <v>12.612028301886792</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="I10" si="17">I8*I9</f>
+        <f t="shared" ref="I10" si="12">I8*I9</f>
         <v>12.144396551724139</v>
       </c>
       <c r="J10">
-        <f t="shared" ref="J10" si="18">J8*J9</f>
+        <f t="shared" ref="J10" si="13">J8*J9</f>
         <v>11.750992063492063</v>
       </c>
       <c r="K10">
-        <f t="shared" ref="K10" si="19">K8*K9</f>
+        <f t="shared" ref="K10" si="14">K8*K9</f>
         <v>11.415441176470587</v>
       </c>
       <c r="L10">
-        <f t="shared" ref="L10" si="20">L8*L9</f>
+        <f t="shared" ref="L10" si="15">L8*L9</f>
         <v>11.125856164383562</v>
       </c>
     </row>
@@ -3849,19 +3861,19 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:F12" si="21">C11*C3</f>
+        <f t="shared" ref="C12:F12" si="16">C11*C3</f>
         <v>2</v>
       </c>
       <c r="D12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="G12">
@@ -3869,23 +3881,23 @@
         <v>2</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12:L12" si="22">H11*H3</f>
+        <f t="shared" ref="H12:L12" si="17">H11*H3</f>
         <v>2</v>
       </c>
       <c r="I12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="J12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="K12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="L12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
@@ -3898,43 +3910,43 @@
         <v>1.1411516173420935E-4</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:L13" si="23">C1*C7/(C10*C4)</f>
+        <f t="shared" ref="C13:L13" si="18">C1*C7/(C10*C4)</f>
         <v>1.451667033132356E-4</v>
       </c>
       <c r="D13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>1.7496490145735047E-4</v>
       </c>
       <c r="E13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>2.0321079029594593E-4</v>
       </c>
       <c r="F13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>2.2979972434364121E-4</v>
       </c>
       <c r="G13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>2.5473340888360654E-4</v>
       </c>
       <c r="H13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>2.7807030874487786E-4</v>
       </c>
       <c r="I13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>2.9989733931931931E-4</v>
       </c>
       <c r="J13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>3.2031363539066182E-4</v>
       </c>
       <c r="K13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>3.3942129916365025E-4</v>
       </c>
       <c r="L13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>3.573202344411148E-4</v>
       </c>
     </row>
@@ -3947,43 +3959,43 @@
         <v>1.4041514041514042E-4</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" ref="C14:L14" si="24">C5*C7/(C12*C4)</f>
+        <f t="shared" ref="C14:L14" si="19">C5*C7/(C12*C4)</f>
         <v>1.3009049773755657E-4</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>1.2118018967334036E-4</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>1.1341222879684417E-4</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>1.0658016682113068E-4</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>1.0052447552447552E-4</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>9.5119933829611249E-5</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>9.0266875981161691E-5</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>8.5884988797610149E-5</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>8.1908831908831904E-5</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>7.8284547311095978E-5</v>
       </c>
     </row>
@@ -4072,43 +4084,43 @@
         <v>6.2406729073395732</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:L17" si="25">C1*C7/(C15*C4)</f>
+        <f t="shared" ref="C17:L17" si="20">C1*C7/(C15*C4)</f>
         <v>7.0387129210658621</v>
       </c>
       <c r="D17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>7.7274323849666295</v>
       </c>
       <c r="E17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>8.3278544817006335</v>
       </c>
       <c r="F17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>8.8559365667799383</v>
       </c>
       <c r="G17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>9.3240093240093227</v>
       </c>
       <c r="H17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>9.7417516772355484</v>
       </c>
       <c r="I17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>10.116867259724401</v>
       </c>
       <c r="J17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>10.455563853622104</v>
       </c>
       <c r="K17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>10.762899651788539</v>
       </c>
       <c r="L17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>11.043037591710156</v>
       </c>
     </row>
@@ -4121,43 +4133,43 @@
         <v>1.9917041193636935</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:L18" si="26">C5*C7/(C16*C4)</f>
+        <f t="shared" ref="C18:L18" si="21">C5*C7/(C16*C4)</f>
         <v>1.8452552870575398</v>
       </c>
       <c r="D18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>1.7188679386289412</v>
       </c>
       <c r="E18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>1.6086840964091371</v>
       </c>
       <c r="F18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>1.5117754159025627</v>
       </c>
       <c r="G18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>1.4258790854535535</v>
       </c>
       <c r="H18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>1.3492189195689537</v>
       </c>
       <c r="I18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>1.2803812195909459</v>
       </c>
       <c r="J18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>1.218226791455463</v>
       </c>
       <c r="K18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>1.1618274029621545</v>
       </c>
       <c r="L18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>1.1104191107956876</v>
       </c>
     </row>
@@ -4177,159 +4189,159 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <f>B1+B3</f>
         <v>630</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:K20" si="27">C1+C3</f>
+        <f t="shared" ref="C20:K20" si="22">C1+C3</f>
         <v>680</v>
       </c>
       <c r="D20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>730</v>
       </c>
       <c r="E20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>780</v>
       </c>
       <c r="F20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>830</v>
       </c>
       <c r="G20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>880</v>
       </c>
       <c r="H20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>930</v>
       </c>
       <c r="I20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>980</v>
       </c>
       <c r="J20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>1030</v>
       </c>
       <c r="K20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>1080</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" ref="G20:L20" si="28">L1+L3</f>
+        <f t="shared" ref="G20:L20" si="23">L1+L3</f>
         <v>1130</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2">
         <f>B9+B17/2</f>
         <v>81.870336453669793</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" ref="C21:L21" si="29">C9+C17/2</f>
+        <f t="shared" ref="C21:L21" si="24">C9+C17/2</f>
         <v>73.340785031961502</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>67.462201040968168</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>63.177085135587163</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>59.922154329901602</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>57.370337995337991</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>55.318989046164944</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>53.636019836758756</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>52.231750180779308</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>51.04321453177662</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>50.024943453389326</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2">
         <f>B9*SQRT(B7)</f>
         <v>62.749501990055663</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" ref="C22:L22" si="30">C9*SQRT(C7)</f>
+        <f t="shared" ref="C22:L22" si="25">C9*SQRT(C7)</f>
         <v>53.550591185593184</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>47.0777106030977</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>42.260200132458635</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>38.524626359351451</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>35.535951084000047</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>33.085176008063094</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>31.035081411850534</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>29.291789708354592</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>27.788865049894454</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>26.477940768585412</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2">
         <v>2.7E-2</v>
@@ -4367,50 +4379,50 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2">
         <f>B22^2*B23</f>
         <v>106.31249999999999</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" ref="C24:L24" si="31">C22^2*C23</f>
+        <f t="shared" ref="C24:L24" si="26">C22^2*C23</f>
         <v>77.426977040816325</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>59.840392561983478</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>48.219961911357338</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>40.071964575446188</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>34.095703124999993</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>29.554979530081873</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>26.005759512485145</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>23.166241496598637</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>20.84996756055363</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>18.92919637830737</v>
       </c>
     </row>
@@ -4423,7 +4435,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -4439,335 +4451,863 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27">
-        <f>B3+B1</f>
+        <v>23</v>
+      </c>
+      <c r="B27" s="8">
+        <f>B1+B3</f>
         <v>630</v>
       </c>
-      <c r="C27">
-        <f t="shared" ref="C27:L27" si="32">C3+C1</f>
+      <c r="C27" s="8">
+        <f t="shared" ref="C27:L27" si="27">C1+C3</f>
         <v>680</v>
       </c>
-      <c r="D27">
-        <f t="shared" si="32"/>
+      <c r="D27" s="8">
+        <f t="shared" si="27"/>
         <v>730</v>
       </c>
       <c r="E27">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>780</v>
       </c>
       <c r="F27">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>830</v>
       </c>
       <c r="G27">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>880</v>
       </c>
       <c r="H27">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>930</v>
       </c>
       <c r="I27">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>980</v>
       </c>
       <c r="J27">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>1030</v>
       </c>
       <c r="K27">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>1080</v>
       </c>
       <c r="L27">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>1130</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28">
-        <f>B5</f>
-        <v>28.75</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ref="C28:L28" si="33">C5</f>
-        <v>28.75</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="33"/>
-        <v>28.75</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="33"/>
-        <v>28.75</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="33"/>
-        <v>28.75</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="33"/>
-        <v>28.75</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="33"/>
-        <v>28.75</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="33"/>
-        <v>28.75</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="33"/>
-        <v>28.75</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="33"/>
-        <v>28.75</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="33"/>
-        <v>28.75</v>
+        <v>24</v>
+      </c>
+      <c r="B28" s="8">
+        <f>B9+B17/2</f>
+        <v>81.870336453669793</v>
+      </c>
+      <c r="C28" s="8">
+        <f t="shared" ref="C28:L28" si="28">C9+C17/2</f>
+        <v>73.340785031961502</v>
+      </c>
+      <c r="D28" s="8">
+        <f t="shared" si="28"/>
+        <v>67.462201040968168</v>
+      </c>
+      <c r="E28" s="8">
+        <f t="shared" si="28"/>
+        <v>63.177085135587163</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="28"/>
+        <v>59.922154329901602</v>
+      </c>
+      <c r="G28" s="8">
+        <f t="shared" si="28"/>
+        <v>57.370337995337991</v>
+      </c>
+      <c r="H28" s="8">
+        <f t="shared" si="28"/>
+        <v>55.318989046164944</v>
+      </c>
+      <c r="I28" s="8">
+        <f t="shared" si="28"/>
+        <v>53.636019836758756</v>
+      </c>
+      <c r="J28" s="8">
+        <f t="shared" si="28"/>
+        <v>52.231750180779308</v>
+      </c>
+      <c r="K28" s="8">
+        <f t="shared" si="28"/>
+        <v>51.04321453177662</v>
+      </c>
+      <c r="L28" s="8">
+        <f t="shared" si="28"/>
+        <v>50.024943453389326</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2">
+        <v>25</v>
+      </c>
+      <c r="B29" s="8">
         <f>B9*SQRT(1-B7)</f>
         <v>47.582165776685706</v>
       </c>
-      <c r="C29" s="2">
-        <f t="shared" ref="C29:L29" si="34">C9*SQRT(1-C7)</f>
+      <c r="C29" s="8">
+        <f t="shared" ref="C29:L29" si="29">C9*SQRT(1-C7)</f>
         <v>44.80363904225382</v>
       </c>
-      <c r="D29" s="2">
-        <f t="shared" si="34"/>
+      <c r="D29" s="8">
+        <f t="shared" si="29"/>
         <v>42.760454153270395</v>
       </c>
-      <c r="E29" s="2">
-        <f t="shared" si="34"/>
+      <c r="E29" s="8">
+        <f t="shared" si="29"/>
         <v>41.190147966154285</v>
       </c>
-      <c r="F29" s="2">
-        <f t="shared" si="34"/>
+      <c r="F29" s="8">
+        <f t="shared" si="29"/>
         <v>39.943182757977731</v>
       </c>
-      <c r="G29" s="2">
-        <f t="shared" si="34"/>
+      <c r="G29" s="8">
+        <f t="shared" si="29"/>
         <v>38.927684022213974</v>
       </c>
-      <c r="H29" s="2">
-        <f t="shared" si="34"/>
+      <c r="H29" s="8">
+        <f t="shared" si="29"/>
         <v>38.083897577808138</v>
       </c>
-      <c r="I29" s="2">
-        <f t="shared" si="34"/>
+      <c r="I29" s="8">
+        <f t="shared" si="29"/>
         <v>37.371186808131689</v>
       </c>
-      <c r="J29" s="2">
-        <f t="shared" si="34"/>
+      <c r="J29" s="8">
+        <f t="shared" si="29"/>
         <v>36.760904331933773</v>
       </c>
-      <c r="K29" s="2">
-        <f t="shared" si="34"/>
+      <c r="K29" s="8">
+        <f t="shared" si="29"/>
         <v>36.232247174224753</v>
       </c>
-      <c r="L29" s="2">
-        <f t="shared" si="34"/>
+      <c r="L29" s="8">
+        <f t="shared" si="29"/>
         <v>35.769728247557453</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.7</v>
-      </c>
-      <c r="C30">
-        <v>0.7</v>
-      </c>
-      <c r="D30">
-        <v>0.7</v>
-      </c>
-      <c r="E30">
-        <v>0.7</v>
-      </c>
-      <c r="F30">
-        <v>0.7</v>
-      </c>
-      <c r="G30">
-        <v>0.7</v>
-      </c>
-      <c r="H30">
-        <v>0.7</v>
-      </c>
-      <c r="I30">
-        <v>0.7</v>
-      </c>
-      <c r="J30">
-        <v>0.7</v>
-      </c>
-      <c r="K30">
-        <v>0.7</v>
-      </c>
-      <c r="L30">
-        <v>0.7</v>
+        <v>29</v>
+      </c>
+      <c r="B30" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C30" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D30" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J30" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K30" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L30" s="2">
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C31">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D31">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E31">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F31">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G31">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H31">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I31">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J31">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K31">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L31">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="M31" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="B31" s="8">
+        <f>B29^2*B30</f>
+        <v>61.12968750000001</v>
+      </c>
+      <c r="C31" s="8">
+        <f t="shared" ref="C31:L31" si="30">C29^2*C30</f>
+        <v>54.198883928571412</v>
+      </c>
+      <c r="D31" s="8">
+        <f t="shared" si="30"/>
+        <v>49.368323863636363</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" si="30"/>
+        <v>45.808963815789468</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="30"/>
+        <v>43.077361918604652</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" si="30"/>
+        <v>40.914843749999989</v>
+      </c>
+      <c r="H31" s="8">
+        <f t="shared" si="30"/>
+        <v>39.160347877358468</v>
+      </c>
+      <c r="I31" s="8">
+        <f t="shared" si="30"/>
+        <v>37.708351293103455</v>
+      </c>
+      <c r="J31" s="8">
+        <f t="shared" si="30"/>
+        <v>36.486830357142857</v>
+      </c>
+      <c r="K31" s="8">
+        <f t="shared" si="30"/>
+        <v>35.444944852941177</v>
+      </c>
+      <c r="L31" s="8">
+        <f t="shared" si="30"/>
+        <v>34.545783390410953</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32">
-        <f>B30*B28+B29^2*B31</f>
-        <v>76.726562500000014</v>
-      </c>
-      <c r="C32">
-        <f t="shared" ref="C32:L32" si="35">C30*C28+C29^2*C31</f>
-        <v>70.309151785714278</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="35"/>
-        <v>65.836410984848484</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="35"/>
-        <v>62.540707236842103</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="35"/>
-        <v>60.011446220930239</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="35"/>
-        <v>58.009114583333329</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="35"/>
-        <v>56.384581367924511</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="35"/>
-        <v>55.040140086206904</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="35"/>
-        <v>53.909102182539684</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="35"/>
-        <v>52.944393382352942</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="35"/>
-        <v>52.111836472602739</v>
-      </c>
-      <c r="M32" t="s">
-        <v>37</v>
-      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <f>B32+B24</f>
-        <v>183.0390625</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ref="C34:L34" si="36">C32+C24</f>
-        <v>147.7361288265306</v>
-      </c>
-      <c r="D34">
+        <v>23</v>
+      </c>
+      <c r="B34" s="8">
+        <f>B1+B3</f>
+        <v>630</v>
+      </c>
+      <c r="C34" s="8">
+        <f t="shared" ref="C34:L34" si="31">C1+C3</f>
+        <v>680</v>
+      </c>
+      <c r="D34" s="8">
+        <f t="shared" si="31"/>
+        <v>730</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="31"/>
+        <v>780</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="31"/>
+        <v>830</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="31"/>
+        <v>880</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="31"/>
+        <v>930</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="31"/>
+        <v>980</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="31"/>
+        <v>1030</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="31"/>
+        <v>1080</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="31"/>
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="8">
+        <f>B9+B17/2</f>
+        <v>81.870336453669793</v>
+      </c>
+      <c r="C35" s="8">
+        <f t="shared" ref="C35:L35" si="32">C23+C31/2</f>
+        <v>27.126441964285707</v>
+      </c>
+      <c r="D35" s="8">
+        <f t="shared" si="32"/>
+        <v>24.711161931818182</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="32"/>
+        <v>22.931481907894735</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="32"/>
+        <v>21.565680959302327</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="32"/>
+        <v>20.484421874999995</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="32"/>
+        <v>19.607173938679235</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="32"/>
+        <v>18.881175646551728</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="32"/>
+        <v>18.270415178571429</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="32"/>
+        <v>17.749472426470589</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" si="32"/>
+        <v>17.299891695205478</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="8">
+        <f>B9*SQRT(B7)</f>
+        <v>62.749501990055663</v>
+      </c>
+      <c r="C36" s="8">
+        <f t="shared" ref="C36:L36" si="33">C23*SQRT(C21)</f>
+        <v>0.23122593342508085</v>
+      </c>
+      <c r="D36" s="8">
+        <f t="shared" si="33"/>
+        <v>0.2217655170644566</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="33"/>
+        <v>0.21460683834361624</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="33"/>
+        <v>0.2090053839174921</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="33"/>
+        <v>0.20450666590260916</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="33"/>
+        <v>0.20081718804587978</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="33"/>
+        <v>0.19773886431603965</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="33"/>
+        <v>0.19513314911051918</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="33"/>
+        <v>0.19290024207777751</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="33"/>
+        <v>0.19096644673219643</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C37" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D37" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G37" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H37" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J37" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K37" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L37" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="8">
+        <f>B36^2*B37</f>
+        <v>106.31249999999999</v>
+      </c>
+      <c r="C38" s="8">
+        <f t="shared" ref="C38:L38" si="34">C36^2*C37</f>
+        <v>1.443566671784098E-3</v>
+      </c>
+      <c r="D38" s="8">
+        <f t="shared" si="34"/>
+        <v>1.3278585030893763E-3</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" si="34"/>
+        <v>1.2435145667237619E-3</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" si="34"/>
+        <v>1.1794477636754531E-3</v>
+      </c>
+      <c r="G38" s="8">
+        <f t="shared" si="34"/>
+        <v>1.129220362762238E-3</v>
+      </c>
+      <c r="H38" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0888436613956645E-3</v>
+      </c>
+      <c r="I38" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0557177784469227E-3</v>
+      </c>
+      <c r="J38" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0280775388082791E-3</v>
+      </c>
+      <c r="K38" s="8">
+        <f t="shared" si="34"/>
+        <v>1.0046835916289593E-3</v>
+      </c>
+      <c r="L38" s="8">
+        <f t="shared" si="34"/>
+        <v>9.8464096199306198E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="8">
+        <f>B1+B3</f>
+        <v>630</v>
+      </c>
+      <c r="C41" s="8">
+        <f t="shared" ref="C41:L41" si="35">C8+C10</f>
+        <v>17.705357142857142</v>
+      </c>
+      <c r="D41" s="8">
+        <f t="shared" si="35"/>
+        <v>16.149621212121211</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="35"/>
+        <v>15.003289473684211</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="35"/>
+        <v>14.123546511627907</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="35"/>
+        <v>13.427083333333332</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="35"/>
+        <v>12.862028301886792</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="35"/>
+        <v>12.394396551724139</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="35"/>
+        <v>12.000992063492063</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="35"/>
+        <v>11.665441176470587</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="35"/>
+        <v>11.375856164383562</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="8">
+        <f>B9+B17/2</f>
+        <v>81.870336453669793</v>
+      </c>
+      <c r="C42" s="8">
+        <f t="shared" ref="C42:L42" si="36">C30+C38/2</f>
+        <v>2.772178333589205E-2</v>
+      </c>
+      <c r="D42" s="8">
         <f t="shared" si="36"/>
-        <v>125.67680354683196</v>
-      </c>
-      <c r="E34">
+        <v>2.7663929251544688E-2</v>
+      </c>
+      <c r="E42" s="2">
         <f t="shared" si="36"/>
-        <v>110.76066914819944</v>
-      </c>
-      <c r="F34">
+        <v>2.7621757283361879E-2</v>
+      </c>
+      <c r="F42" s="2">
         <f t="shared" si="36"/>
-        <v>100.08341079637643</v>
-      </c>
-      <c r="G34">
+        <v>2.7589723881837728E-2</v>
+      </c>
+      <c r="G42" s="2">
         <f t="shared" si="36"/>
-        <v>92.104817708333314</v>
-      </c>
-      <c r="H34">
+        <v>2.7564610181381118E-2</v>
+      </c>
+      <c r="H42" s="2">
         <f t="shared" si="36"/>
-        <v>85.939560898006391</v>
-      </c>
-      <c r="I34">
+        <v>2.7544421830697833E-2</v>
+      </c>
+      <c r="I42" s="2">
         <f t="shared" si="36"/>
-        <v>81.045899598692046</v>
-      </c>
-      <c r="J34">
+        <v>2.7527858889223461E-2</v>
+      </c>
+      <c r="J42" s="2">
         <f t="shared" si="36"/>
-        <v>77.075343679138314</v>
-      </c>
-      <c r="K34">
+        <v>2.7514038769404139E-2</v>
+      </c>
+      <c r="K42" s="2">
         <f t="shared" si="36"/>
-        <v>73.794360942906565</v>
-      </c>
-      <c r="L34">
+        <v>2.750234179581448E-2</v>
+      </c>
+      <c r="L42" s="2">
         <f t="shared" si="36"/>
-        <v>71.041032850910113</v>
+        <v>2.7492320480996531E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="8">
+        <f>B9*SQRT(1-B7)</f>
+        <v>47.582165776685706</v>
+      </c>
+      <c r="C43" s="8">
+        <f t="shared" ref="C43:K43" si="37">C9*SQRT(1-C7)</f>
+        <v>44.80363904225382</v>
+      </c>
+      <c r="D43" s="8">
+        <f t="shared" si="37"/>
+        <v>42.760454153270395</v>
+      </c>
+      <c r="E43" s="8">
+        <f t="shared" si="37"/>
+        <v>41.190147966154285</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" si="37"/>
+        <v>39.943182757977731</v>
+      </c>
+      <c r="G43" s="8">
+        <f t="shared" si="37"/>
+        <v>38.927684022213974</v>
+      </c>
+      <c r="H43" s="8">
+        <f t="shared" si="37"/>
+        <v>38.083897577808138</v>
+      </c>
+      <c r="I43" s="8">
+        <f t="shared" si="37"/>
+        <v>37.371186808131689</v>
+      </c>
+      <c r="J43" s="8">
+        <f t="shared" si="37"/>
+        <v>36.760904331933773</v>
+      </c>
+      <c r="K43" s="8">
+        <f t="shared" si="37"/>
+        <v>36.232247174224753</v>
+      </c>
+      <c r="L43" s="8">
+        <f>L9*SQRT(1-L7)</f>
+        <v>35.769728247557453</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C44" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D44" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F44" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G44" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H44" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I44" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J44" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K44" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L44" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="8">
+        <f>B43^2*B44</f>
+        <v>61.12968750000001</v>
+      </c>
+      <c r="C45" s="8">
+        <f t="shared" ref="C45:L45" si="38">C43^2*C44</f>
+        <v>54.198883928571412</v>
+      </c>
+      <c r="D45" s="8">
+        <f t="shared" si="38"/>
+        <v>49.368323863636363</v>
+      </c>
+      <c r="E45" s="8">
+        <f t="shared" si="38"/>
+        <v>45.808963815789468</v>
+      </c>
+      <c r="F45" s="8">
+        <f t="shared" si="38"/>
+        <v>43.077361918604652</v>
+      </c>
+      <c r="G45" s="8">
+        <f t="shared" si="38"/>
+        <v>40.914843749999989</v>
+      </c>
+      <c r="H45" s="8">
+        <f t="shared" si="38"/>
+        <v>39.160347877358468</v>
+      </c>
+      <c r="I45" s="8">
+        <f t="shared" si="38"/>
+        <v>37.708351293103455</v>
+      </c>
+      <c r="J45" s="8">
+        <f t="shared" si="38"/>
+        <v>36.486830357142857</v>
+      </c>
+      <c r="K45" s="8">
+        <f t="shared" si="38"/>
+        <v>35.444944852941177</v>
+      </c>
+      <c r="L45" s="8">
+        <f t="shared" si="38"/>
+        <v>34.545783390410953</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48">
+        <f>B45+B38+B31+B24</f>
+        <v>334.88437499999998</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48:L48" si="39">C45+C38+C31+C24</f>
+        <v>185.82618846463095</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="39"/>
+        <v>158.57836814775931</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="39"/>
+        <v>139.83913305750301</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="39"/>
+        <v>126.22786786041917</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="39"/>
+        <v>115.92651984536275</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="39"/>
+        <v>107.8767641284602</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="39"/>
+        <v>101.42351781647049</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="39"/>
+        <v>96.140930288423164</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="39"/>
+        <v>91.740861950027607</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="39"/>
+        <v>88.021747800091262</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49">
+        <f>B2/(B45+B2)</f>
+        <v>0.99471248146570879</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49:L49" si="40">C2/(C45+C2)</f>
+        <v>0.99530916124319446</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="40"/>
+        <v>0.99572545246811195</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="40"/>
+        <v>0.99603241626815819</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="40"/>
+        <v>0.99626812152704447</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="40"/>
+        <v>0.99645480065454617</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="40"/>
+        <v>0.9966063087177256</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="40"/>
+        <v>0.99673172954758582</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="40"/>
+        <v>0.99683726676121798</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="40"/>
+        <v>0.99692730145890418</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="40"/>
+        <v>0.99700501571200517</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A19:L19"/>
     <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="A40:L40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4778,10 +5318,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA219333-B2A5-48FB-9AE0-C8D7DEDE1BCA}">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5007,7 +5547,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <f>B3*B5/B1</f>
@@ -5150,7 +5690,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9" s="8">
         <f>B6</f>
@@ -5608,7 +6148,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -5622,12 +6162,12 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="8">
         <f>B1+B3</f>
@@ -5676,7 +6216,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" s="8">
         <f>B9+B17/2</f>
@@ -5725,56 +6265,56 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B22" s="8">
-        <f>B9*SQRT(B7)</f>
-        <v>32.596012026013241</v>
+        <f>B9*SQRT(B7)+B9*SQRT(1-B7)</f>
+        <v>70.510389246270989</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" ref="C22:L22" si="17">C9*SQRT(C7)</f>
-        <v>22.495747897533612</v>
+        <f t="shared" ref="C22:D22" si="17">C9*SQRT(C7)+C9*SQRT(1-C7)</f>
+        <v>56.858570415897425</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" si="17"/>
-        <v>14.578167129002836</v>
+        <v>46.230875376385704</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="C22:L22" si="18">E9*SQRT(E7)</f>
         <v>42.260200132458635</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>27.728962274798697</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>26.245039213789212</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>24.976403958876492</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>23.875575457950241</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>22.908548345575877</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>22.050243429361899</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>21.281704793181152</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B23" s="8">
         <v>2.7E-2</v>
@@ -5812,50 +6352,50 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B24" s="8">
         <f>B22^2*B23</f>
-        <v>28.687499999999993</v>
+        <v>134.23630477483749</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" ref="C24:L24" si="18">C22^2*C23</f>
-        <v>13.663584183673473</v>
+        <f t="shared" ref="C24:L24" si="19">C22^2*C23</f>
+        <v>87.288219802968271</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" si="18"/>
-        <v>5.7381198347107469</v>
+        <f t="shared" si="19"/>
+        <v>57.706933627806464</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>48.219961911357338</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>20.760174418604652</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>18.597656250000004</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>16.843160377358497</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15.391163793103447</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>14.169642857142856</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>13.127757352941176</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>12.22859589041096</v>
       </c>
     </row>
@@ -5868,7 +6408,7 @@
     </row>
     <row r="26" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -5884,154 +6424,154 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" s="8">
         <f>B1+B3</f>
         <v>630</v>
       </c>
       <c r="C27" s="8">
-        <f t="shared" ref="C27:L27" si="19">C1+C3</f>
+        <f t="shared" ref="C27:L27" si="20">C1+C3</f>
         <v>680</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>730</v>
       </c>
       <c r="E27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>780</v>
       </c>
       <c r="F27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>830</v>
       </c>
       <c r="G27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>880</v>
       </c>
       <c r="H27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>930</v>
       </c>
       <c r="I27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>980</v>
       </c>
       <c r="J27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1030</v>
       </c>
       <c r="K27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1080</v>
       </c>
       <c r="L27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1130</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" s="8">
         <f>B9+B17/2</f>
         <v>50.835470085470085</v>
       </c>
       <c r="C28" s="8">
-        <f t="shared" ref="C28:L28" si="20">C9+C17/2</f>
+        <f t="shared" ref="C28:L28" si="21">C9+C17/2</f>
         <v>41.789377289377285</v>
       </c>
       <c r="D28" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>35.342074592074596</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>60.678728791076971</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>32.168803418803421</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>32.168803418803421</v>
       </c>
       <c r="H28" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>32.168803418803421</v>
       </c>
       <c r="I28" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>32.168803418803421</v>
       </c>
       <c r="J28" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>32.168803418803421</v>
       </c>
       <c r="K28" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>32.168803418803421</v>
       </c>
       <c r="L28" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>32.168803418803421</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29" s="8">
         <f>B9*SQRT(1-B7)</f>
         <v>37.914377220257748</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" ref="C29:L29" si="21">C9*SQRT(1-C7)</f>
+        <f t="shared" ref="C29:L29" si="22">C9*SQRT(1-C7)</f>
         <v>34.362822518363814</v>
       </c>
       <c r="D29" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>31.652708247382868</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>41.190147966154285</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7.5938890670585053</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>11.73713835083606</v>
       </c>
       <c r="H29" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>14.238741000629895</v>
       </c>
       <c r="I29" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>16.016222917770722</v>
       </c>
       <c r="J29" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>17.371266870853511</v>
       </c>
       <c r="K29" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>18.448557252692751</v>
       </c>
       <c r="L29" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19.330068315861958</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B30" s="8">
         <v>2.7E-2</v>
@@ -6069,54 +6609,54 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B31" s="8">
         <f>B29^2*B30</f>
         <v>38.812499999999986</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" ref="C31:L31" si="22">C29^2*C30</f>
+        <f t="shared" ref="C31:L31" si="23">C29^2*C30</f>
         <v>31.88169642857142</v>
       </c>
       <c r="D31" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>27.051136363636367</v>
       </c>
       <c r="E31" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>45.808963815789468</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5570130813953487</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.7195312499999988</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5.4740271226415089</v>
       </c>
       <c r="I31" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.9260237068965518</v>
       </c>
       <c r="J31" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>8.1475446428571434</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9.1894301470588218</v>
       </c>
       <c r="L31" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>10.08859160958904</v>
       </c>
       <c r="M31" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -6126,12 +6666,12 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="M32" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -6147,154 +6687,154 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34" s="8">
         <f>B1+B3</f>
         <v>630</v>
       </c>
       <c r="C34" s="8">
-        <f t="shared" ref="C34:L34" si="23">C1+C3</f>
+        <f t="shared" ref="C34:L34" si="24">C1+C3</f>
         <v>680</v>
       </c>
       <c r="D34" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>730</v>
       </c>
       <c r="E34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>780</v>
       </c>
       <c r="F34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>830</v>
       </c>
       <c r="G34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>880</v>
       </c>
       <c r="H34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>930</v>
       </c>
       <c r="I34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>980</v>
       </c>
       <c r="J34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1030</v>
       </c>
       <c r="K34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1080</v>
       </c>
       <c r="L34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1130</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B35" s="8">
         <f>B9+B17/2</f>
         <v>50.835470085470085</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" ref="C35:L35" si="24">C23+C31/2</f>
+        <f t="shared" ref="C35:L35" si="25">C23+C31/2</f>
         <v>15.967848214285709</v>
       </c>
       <c r="D35" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>13.552568181818183</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>22.931481907894735</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.80550654069767436</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.8867656249999993</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.7640135613207546</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.490011853448276</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.1007723214285718</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.621715073529411</v>
       </c>
       <c r="L35" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.07129580479452</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B36" s="8">
         <f>B9*SQRT(B7)</f>
         <v>32.596012026013241</v>
       </c>
       <c r="C36" s="8">
-        <f t="shared" ref="C36:L36" si="25">C23*SQRT(C21)</f>
-        <v>0.17454070025056059</v>
+        <f t="shared" ref="C36:L36" si="26">C9*SQRT(C7)</f>
+        <v>22.495747897533612</v>
       </c>
       <c r="D36" s="8">
-        <f t="shared" si="25"/>
-        <v>0.16051284178414629</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" si="25"/>
-        <v>0.21032069153722158</v>
-      </c>
-      <c r="F36" s="2">
-        <f t="shared" si="25"/>
-        <v>0.15313738175999905</v>
-      </c>
-      <c r="G36" s="2">
-        <f t="shared" si="25"/>
-        <v>0.15313738175999905</v>
-      </c>
-      <c r="H36" s="2">
-        <f t="shared" si="25"/>
-        <v>0.15313738175999905</v>
-      </c>
-      <c r="I36" s="2">
-        <f t="shared" si="25"/>
-        <v>0.15313738175999905</v>
-      </c>
-      <c r="J36" s="2">
-        <f t="shared" si="25"/>
-        <v>0.15313738175999905</v>
-      </c>
-      <c r="K36" s="2">
-        <f t="shared" si="25"/>
-        <v>0.15313738175999905</v>
-      </c>
-      <c r="L36" s="2">
-        <f t="shared" si="25"/>
-        <v>0.15313738175999905</v>
+        <f t="shared" si="26"/>
+        <v>14.578167129002836</v>
+      </c>
+      <c r="E36" s="8">
+        <f t="shared" si="26"/>
+        <v>42.260200132458635</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" si="26"/>
+        <v>27.728962274798697</v>
+      </c>
+      <c r="G36" s="8">
+        <f t="shared" si="26"/>
+        <v>26.245039213789212</v>
+      </c>
+      <c r="H36" s="8">
+        <f t="shared" si="26"/>
+        <v>24.976403958876492</v>
+      </c>
+      <c r="I36" s="8">
+        <f t="shared" si="26"/>
+        <v>23.875575457950241</v>
+      </c>
+      <c r="J36" s="8">
+        <f t="shared" si="26"/>
+        <v>22.908548345575877</v>
+      </c>
+      <c r="K36" s="8">
+        <f t="shared" si="26"/>
+        <v>22.050243429361899</v>
+      </c>
+      <c r="L36" s="8">
+        <f t="shared" si="26"/>
+        <v>21.281704793181152</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B37" s="8">
         <v>2.7E-2</v>
@@ -6332,51 +6872,51 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B38" s="8">
         <f>B36^2*B37</f>
         <v>28.687499999999993</v>
       </c>
       <c r="C38" s="8">
-        <f t="shared" ref="C38:L38" si="26">C36^2*C37</f>
-        <v>8.2254031318681315E-4</v>
+        <f t="shared" ref="C38:L38" si="27">C36^2*C37</f>
+        <v>13.663584183673473</v>
       </c>
       <c r="D38" s="8">
-        <f t="shared" si="26"/>
-        <v>6.9563805419580425E-4</v>
+        <f t="shared" si="27"/>
+        <v>5.7381198347107469</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" si="26"/>
-        <v>1.194339418794768E-3</v>
+        <f t="shared" si="27"/>
+        <v>48.219961911357338</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" si="26"/>
-        <v>6.3317855769230767E-4</v>
+        <f t="shared" si="27"/>
+        <v>20.760174418604652</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" si="26"/>
-        <v>6.3317855769230767E-4</v>
+        <f t="shared" si="27"/>
+        <v>18.597656250000004</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" si="26"/>
-        <v>6.3317855769230767E-4</v>
+        <f t="shared" si="27"/>
+        <v>16.843160377358497</v>
       </c>
       <c r="I38" s="8">
-        <f t="shared" si="26"/>
-        <v>6.3317855769230767E-4</v>
+        <f t="shared" si="27"/>
+        <v>15.391163793103447</v>
       </c>
       <c r="J38" s="8">
-        <f t="shared" si="26"/>
-        <v>6.3317855769230767E-4</v>
+        <f t="shared" si="27"/>
+        <v>14.169642857142856</v>
       </c>
       <c r="K38" s="8">
-        <f t="shared" si="26"/>
-        <v>6.3317855769230767E-4</v>
+        <f t="shared" si="27"/>
+        <v>13.127757352941176</v>
       </c>
       <c r="L38" s="8">
-        <f t="shared" si="26"/>
-        <v>6.3317855769230767E-4</v>
+        <f t="shared" si="27"/>
+        <v>12.22859589041096</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -6388,7 +6928,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -6404,154 +6944,154 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B41" s="8">
         <f>B1+B3</f>
         <v>630</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" ref="C41:L41" si="27">C8+C10</f>
-        <v>10.517857142857142</v>
+        <f t="shared" ref="C41:L41" si="28">C1+C3</f>
+        <v>680</v>
       </c>
       <c r="D41" s="8">
-        <f t="shared" si="27"/>
-        <v>8.9621212121212128</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="27"/>
-        <v>15.003289473684211</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="27"/>
-        <v>7.4375</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="27"/>
-        <v>7.4375</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="27"/>
-        <v>7.4375</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="27"/>
-        <v>7.4375</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="27"/>
-        <v>7.4375</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="27"/>
-        <v>7.4375</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="27"/>
-        <v>7.4375</v>
+        <f t="shared" si="28"/>
+        <v>730</v>
+      </c>
+      <c r="E41" s="8">
+        <f t="shared" si="28"/>
+        <v>780</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="28"/>
+        <v>830</v>
+      </c>
+      <c r="G41" s="8">
+        <f t="shared" si="28"/>
+        <v>880</v>
+      </c>
+      <c r="H41" s="8">
+        <f t="shared" si="28"/>
+        <v>930</v>
+      </c>
+      <c r="I41" s="8">
+        <f t="shared" si="28"/>
+        <v>980</v>
+      </c>
+      <c r="J41" s="8">
+        <f t="shared" si="28"/>
+        <v>1030</v>
+      </c>
+      <c r="K41" s="8">
+        <f t="shared" si="28"/>
+        <v>1080</v>
+      </c>
+      <c r="L41" s="8">
+        <f t="shared" si="28"/>
+        <v>1130</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B42" s="8">
         <f>B9+B17/2</f>
         <v>50.835470085470085</v>
       </c>
       <c r="C42" s="8">
-        <f t="shared" ref="C42:L42" si="28">C30+C38/2</f>
-        <v>2.7411270156593406E-2</v>
+        <f t="shared" ref="C42:L42" si="29">C30+C38/2</f>
+        <v>6.8587920918367367</v>
       </c>
       <c r="D42" s="8">
-        <f t="shared" si="28"/>
-        <v>2.7347819027097903E-2</v>
+        <f t="shared" si="29"/>
+        <v>2.8960599173553736</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" si="28"/>
-        <v>2.7597169709397382E-2</v>
+        <f t="shared" si="29"/>
+        <v>24.13698095567867</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="28"/>
-        <v>2.7316589278846153E-2</v>
+        <f t="shared" si="29"/>
+        <v>10.407087209302325</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="28"/>
-        <v>2.7316589278846153E-2</v>
+        <f t="shared" si="29"/>
+        <v>9.325828125000001</v>
       </c>
       <c r="H42" s="2">
-        <f t="shared" si="28"/>
-        <v>2.7316589278846153E-2</v>
+        <f t="shared" si="29"/>
+        <v>8.448580188679248</v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" si="28"/>
-        <v>2.7316589278846153E-2</v>
+        <f t="shared" si="29"/>
+        <v>7.7225818965517234</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" si="28"/>
-        <v>2.7316589278846153E-2</v>
+        <f t="shared" si="29"/>
+        <v>7.1118214285714281</v>
       </c>
       <c r="K42" s="2">
-        <f t="shared" si="28"/>
-        <v>2.7316589278846153E-2</v>
+        <f t="shared" si="29"/>
+        <v>6.590878676470588</v>
       </c>
       <c r="L42" s="2">
-        <f t="shared" si="28"/>
-        <v>2.7316589278846153E-2</v>
+        <f t="shared" si="29"/>
+        <v>6.1412979452054799</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B43" s="8">
         <f>B9*SQRT(1-B7)</f>
         <v>37.914377220257748</v>
       </c>
       <c r="C43" s="8">
-        <f t="shared" ref="C43:K43" si="29">C9*SQRT(1-C7)</f>
+        <f t="shared" ref="C43:L43" si="30">C9*SQRT(1-C7)</f>
         <v>34.362822518363814</v>
       </c>
       <c r="D43" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>31.652708247382868</v>
       </c>
       <c r="E43" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>41.190147966154285</v>
       </c>
       <c r="F43" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7.5938890670585053</v>
       </c>
       <c r="G43" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>11.73713835083606</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>14.238741000629895</v>
       </c>
       <c r="I43" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>16.016222917770722</v>
       </c>
       <c r="J43" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>17.371266870853511</v>
       </c>
       <c r="K43" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>18.448557252692751</v>
       </c>
       <c r="L43" s="8">
-        <f>L9*SQRT(1-L7)</f>
+        <f t="shared" si="30"/>
         <v>19.330068315861958</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B44" s="8">
         <v>2.7E-2</v>
@@ -6589,50 +7129,50 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B45" s="8">
         <f>B43^2*B44</f>
         <v>38.812499999999986</v>
       </c>
       <c r="C45" s="8">
-        <f t="shared" ref="C45:L45" si="30">C43^2*C44</f>
+        <f t="shared" ref="C45:L45" si="31">C43^2*C44</f>
         <v>31.88169642857142</v>
       </c>
       <c r="D45" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>27.051136363636367</v>
       </c>
       <c r="E45" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>45.808963815789468</v>
       </c>
       <c r="F45" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1.5570130813953487</v>
       </c>
       <c r="G45" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3.7195312499999988</v>
       </c>
       <c r="H45" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5.4740271226415089</v>
       </c>
       <c r="I45" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>6.9260237068965518</v>
       </c>
       <c r="J45" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>8.1475446428571434</v>
       </c>
       <c r="K45" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>9.1894301470588218</v>
       </c>
       <c r="L45" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>10.08859160958904</v>
       </c>
     </row>
@@ -6645,51 +7185,57 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B48">
         <f>B24+B31+B38+B45</f>
-        <v>134.99999999999994</v>
+        <v>240.54880477483749</v>
       </c>
       <c r="C48">
-        <f t="shared" ref="C48:L48" si="31">C24+C31+C38+C45</f>
-        <v>77.427799581129506</v>
+        <f t="shared" ref="C48:L48" si="32">C24+C31+C38+C45</f>
+        <v>164.71519684378458</v>
       </c>
       <c r="D48">
-        <f t="shared" si="31"/>
-        <v>59.841088200037674</v>
+        <f t="shared" si="32"/>
+        <v>117.54732618978994</v>
       </c>
       <c r="E48">
-        <f t="shared" si="31"/>
-        <v>139.83908388235506</v>
+        <f t="shared" si="32"/>
+        <v>188.0578514542936</v>
       </c>
       <c r="F48">
-        <f t="shared" si="31"/>
-        <v>23.874833759953042</v>
+        <f t="shared" si="32"/>
+        <v>44.634374999999999</v>
       </c>
       <c r="G48">
-        <f t="shared" si="31"/>
-        <v>26.037351928557694</v>
+        <f t="shared" si="32"/>
+        <v>44.634374999999999</v>
       </c>
       <c r="H48">
-        <f t="shared" si="31"/>
-        <v>27.791847801199207</v>
+        <f t="shared" si="32"/>
+        <v>44.634375000000013</v>
       </c>
       <c r="I48">
-        <f t="shared" si="31"/>
-        <v>29.243844385454242</v>
+        <f t="shared" si="32"/>
+        <v>44.634374999999999</v>
       </c>
       <c r="J48">
-        <f t="shared" si="31"/>
-        <v>30.465365321414836</v>
+        <f t="shared" si="32"/>
+        <v>44.634374999999999</v>
       </c>
       <c r="K48">
-        <f t="shared" si="31"/>
-        <v>31.507250825616509</v>
+        <f t="shared" si="32"/>
+        <v>44.634374999999991</v>
       </c>
       <c r="L48">
-        <f t="shared" si="31"/>
-        <v>32.406412288146733</v>
+        <f t="shared" si="32"/>
+        <v>44.634374999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <f>B1*B7/B4/B15</f>
+        <v>1.6709401709401712</v>
       </c>
     </row>
   </sheetData>
